--- a/P0002/09_FICHAS/N3-FD-General.xlsx
+++ b/P0002/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0002\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1364" documentId="13_ncr:1_{43278A2B-3CED-4637-A44B-2B28759B9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC4D12E-52B3-4F34-A9E9-3F98D55A16C6}"/>
+  <xr:revisionPtr revIDLastSave="2141" documentId="13_ncr:1_{43278A2B-3CED-4637-A44B-2B28759B9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{082BA907-A404-4753-9302-652720FCEA79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="619">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -278,7 +278,7 @@
     <t>shp</t>
   </si>
   <si>
-    <t>Poligono</t>
+    <t>Polígono</t>
   </si>
   <si>
     <t>Vector</t>
@@ -929,7 +929,7 @@
     <t>Cobertura_tierra_2000_2002</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_2/ANEXOS/ANEXOS PRODUCTO 2 CAP-2/1. ANEXOS HIDROLOGIA/1_Entrada/Coberturas</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_2/ANEXOS/ANEXOS PRODUCTO 2 CAP-2/1. ANEXOS HIDROLOGIA/1_Entrada/Coberturas/Cobertura_tierra_2000_2002.shp</t>
   </si>
   <si>
     <t>PRODUCTO_2</t>
@@ -938,9 +938,6 @@
     <t>Contiene las coberturas o usos del suelo entre los años 200 y 2002.</t>
   </si>
   <si>
-    <t>poligono</t>
-  </si>
-  <si>
     <t>Es un insumo para la construcción del modelo hidrológico y para estimación de la evapotranspiración real.</t>
   </si>
   <si>
@@ -989,424 +986,917 @@
     <t xml:space="preserve">Capa cartográfica que contiene la ubicación y datos de las pruebas de bombeo realizadas en la campaña de campo en el marco del proyecto. Es un insumo para la construcción del modelo hidrogeológico conceptual y numérico. </t>
   </si>
   <si>
-    <t>puntos</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No corresponde a un dato de variable. es un insumo para la construcción del modelo hidrogeológico numérico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pruebas de bombeo, agua subterránea, hidrogeología, modelo hidrogeológico conceptual La Mojana, </t>
-  </si>
-  <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>R0057</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>R0058</t>
+    <t>Puntos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No corresponde a un dato de variable, es un insumo para la construcción del modelo numérico hidrogeológico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebas de bombeo, agua subterránea, hidrogeología, modelo hidrogeológico conceptual, La Mojana, </t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>R0060</t>
+  </si>
+  <si>
+    <t>Balance_Ionico_primaria</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/1_Base_de_datos_cartografica/Cartografia_3116.gdb</t>
+  </si>
+  <si>
+    <t>PRODUCTO_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene el balance de aniones y cationes principales para los 51 pozos, a los  cuales se les realizó análisis de laboratorio, con muestreo realizado en el marco del proyecto. </t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, aniones, cationes, balance ionico, hidrogeoquimica. </t>
+  </si>
+  <si>
+    <t>R0062</t>
+  </si>
+  <si>
+    <t>CalidadAguaPrimaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene determinantes de calidad de 51 datos, obtenidos en la campaña de campo en los 51 pozos de agua subterránea realizados en el marco del proyecto. Contiene datos de conductividad eléctrica, pH, carbonatos, coliformes totales, E. coli, mercurio, molibdeno, niquel, nitratos, nitritos, plomo y aluminio, entre otros. </t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Es una variable de calidad de agua.</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, calidad de agua</t>
+  </si>
+  <si>
+    <t>R0063</t>
+  </si>
+  <si>
+    <t>CE_secundaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la información de conductividad eléctrica para 441 puntos de agua subterránea obtenidos a partir de información secundaria en el marco del proyecto. </t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Es una variable de calidad de agua</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, pH, conductividad eléctrica, coliformes</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>R0065</t>
+  </si>
+  <si>
+    <t>Estaciones_virtuales_SWAT</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 2/1_MODELO_HIDROLOGICO/1_Información_Climatica/Estaciones_virtuales_SWAT.xlsx</t>
+  </si>
+  <si>
+    <t>PRODUCTO_4</t>
+  </si>
+  <si>
+    <t>Contiene los valores  de precipitación diaria de cada una de las 371 subcuencas del modelo hidrológico construido en SWAT.</t>
+  </si>
+  <si>
+    <t>Es un insumo para construir el modelo hidrológico de la región de la Mojana, corresponde con una espacialización de la precipitación más detallada que la generada por tan solo las estaciones climatológicas de la región</t>
+  </si>
+  <si>
+    <t>Precipitación, lluvia, estación virtual</t>
+  </si>
+  <si>
+    <t>R0066</t>
+  </si>
+  <si>
+    <t>Mapa 3</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas/2_PDF/Mapa 3.pdf</t>
+  </si>
+  <si>
+    <t>Mapa que contiene la evaluación de la vulnerabilidad intrínseca a la contaminación de acuíferos por el método FDRASTIC, en una escala 1:210.000. En una escala numérica y de colores de 1 a 5. Proyecto: Escalando Prácticas de Gestión del Agua Resilientes al Clima para las Comunidades Vulnerables de La Mojana</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>Variable que sirve para la toma de decisiones, Vulnerabilidad instrinseca a la contaminación</t>
+  </si>
+  <si>
+    <t>Vulnerabilidad a la contaminación, hidrogeología, aguas subterrénas, acuíferos</t>
   </si>
   <si>
     <t>PR0016</t>
   </si>
   <si>
-    <t>R0059</t>
-  </si>
-  <si>
-    <t>ANEXO_3</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3</t>
+    <t>R0067</t>
+  </si>
+  <si>
+    <t>A1-Estaciones_usadas_SD_La_Mojana</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/A1-Estaciones_usadas_SD_La_Mojana.xlsx</t>
   </si>
   <si>
     <t>PRODUCTO_5</t>
   </si>
   <si>
-    <t>Contiene el índice SPI de precipitación de las estaciones de precipitación utilizadas para análisis de sequía</t>
-  </si>
-  <si>
-    <t>Carpeta con varios archivos puede derivar en otras fichas</t>
+    <t>Listado de variables y estaciones hidroclimatológicas seleccionadas de la región</t>
+  </si>
+  <si>
+    <t>Codificación de estaciones</t>
+  </si>
+  <si>
+    <t>Estaciones climatológicas, precipitación, temperatura, humedad relativa</t>
+  </si>
+  <si>
+    <t>R0068</t>
+  </si>
+  <si>
+    <t>Cluster_primaria_y_secundaria</t>
+  </si>
+  <si>
+    <t>Archivo que contiene la información agrupada por cluster del análisis de la información hidrogeoquímica de los puntos de agua analizados en el estudio producto de información primaria e información secundaria. En total se tiene información para 82 puntos. Contiene información de los iones principales, conductividad hidráulica, coliformes, metales pesados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene variables de calidad del agua como contenido de metales pesados, variable de potencial de agua subterránea como conductividad hidráulica.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo hidrogeológico, base de datos, información secundaria, pozos, pH, conductividad eléctrica, coliformes, información primaria. </t>
+  </si>
+  <si>
+    <t>R0069</t>
+  </si>
+  <si>
+    <t>Verificacion_normativa_primaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo que contiene información de 202 puntos de agua subterránea con evaluación de parámetros de acuerdo con la normatividad para calidad de agua en los diferentes usos, consumo humano, agricola, uso pecuario, uso recreativo. </t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes</t>
+  </si>
+  <si>
+    <t>R0072</t>
+  </si>
+  <si>
+    <t>Cluster_primaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la información primaria de parámetros fisicoquimicos, agrupados en 3 clusters, que permiten diferenciar los grupos de agua subterránea por su posible origen o composición. </t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Ayuda para el modelo de toma de decisiones al hacer una selección por cluster de los puntos de agua subterránea con origen similar.</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, cluster, origen del agua</t>
+  </si>
+  <si>
+    <t>R0073</t>
+  </si>
+  <si>
+    <t>pH_secundaria</t>
+  </si>
+  <si>
+    <t>Archivo que contiene información de pH de 410 puntos de agua subterránea de la información secundaria recolectada en el marco del proyecto</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, pH</t>
+  </si>
+  <si>
+    <t>R0074</t>
+  </si>
+  <si>
+    <t>Inventario_puntos_hidrogeologicos</t>
+  </si>
+  <si>
+    <t>Contiene información de 6459 puntos de agua subterránea diferenciados como pozo aljibe o manantial, para toda la zona de estudio de la región de La Mojana. Es información cruda, no depurada.</t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. No contiene variables para el modelo de toma de decisiones</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, aljibes, manantiales, puntos de agua subterránea</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>R0076</t>
+  </si>
+  <si>
+    <t>m-1000-CALI.nam</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-CALI.nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario promedio usado para la calibración. </t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>Es un insumo para la corrida del modelo hidrogeológico numérico</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico numérico, escenario calibración, ModelMuse</t>
+  </si>
+  <si>
+    <t>R0077</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Contiene la localización y valores de temperatura media mensual multianual utilizadas en el balance hídrico.</t>
+  </si>
+  <si>
+    <t>Temperatura, estaciones, mensual, balance hídrico</t>
+  </si>
+  <si>
+    <t>R0078</t>
+  </si>
+  <si>
+    <t>Mapa 2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas/2_PDF/Mapa 2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa que contiene las zonas hidrogeológicas y los sistemas acuíferos en una escala 1:210.000 . Contiene la leyenda de las unidades geológicas de la zona de estudio. </t>
+  </si>
+  <si>
+    <t>No contiene información de variables para la toma de decisiones</t>
+  </si>
+  <si>
+    <t>Hidrogeología, geología, mapa unidades hidrogeológicas, acuíferos</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>R0079</t>
+  </si>
+  <si>
+    <t>Dominio de modelacion</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/ANEXOS/Anexo_2_Dominio de Modelación/Dominio de modelacion.png</t>
+  </si>
+  <si>
+    <t>PRODUCTO_9</t>
+  </si>
+  <si>
+    <t>Mapa que contiene el dominio de la modelación como guía para la construcción del modelo hidrogeológico numérico en ModelMuse</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico</t>
+  </si>
+  <si>
+    <t>Mapa, dominio de la modelación hidrogeológica numérica</t>
+  </si>
+  <si>
+    <t>R0080</t>
+  </si>
+  <si>
+    <t>m-1000-DRY10</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-DRY10.nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario seco usado para la calibración. </t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico numérico, escenario seco, modelmuse</t>
+  </si>
+  <si>
+    <t>R0081</t>
+  </si>
+  <si>
+    <t>m-1000-WET100</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-WET100.nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario humedo usado para la calibración. </t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico numérico, escenario humedo, modelmuse</t>
+  </si>
+  <si>
+    <t>R0082</t>
+  </si>
+  <si>
+    <t>well_q1000</t>
+  </si>
+  <si>
+    <t>Contiene el raster con los puntos de caudal asignados al modelo hidrogeológico numérico para el escenario de calibración. Archivo tipo Raster con celdas o píxeles de 1km-1km con las condición tipo Well referida a la cumulación de los caudales de extracción de los puntos de agua presentes en el dominio e incluidas al modelo hidrogeológico numérico
+Expresada en m3/día con escala 1:100000</t>
+  </si>
+  <si>
+    <t>Es un insumo para la construcción del modelo hidrogeológico numérico, contiene la variable de caudal de agua subterránea para el modelo de toma de decisones</t>
+  </si>
+  <si>
+    <t>Modelo hidrogeológico, base de datos, raster, información secundaria, pozos, caudales agua subterránea</t>
+  </si>
+  <si>
+    <t>R0083</t>
+  </si>
+  <si>
+    <t>ProjectSPI_13050030</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_13050030.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Loma Verde, Quebrada Florisanto, Monteria, Córdoba</t>
+  </si>
+  <si>
+    <t>Calculos y datos crudos de precipitación</t>
   </si>
   <si>
     <t>SPI, sequía, índice de precipitación estandar</t>
   </si>
   <si>
-    <t>PR0006</t>
-  </si>
-  <si>
-    <t>R0060</t>
-  </si>
-  <si>
-    <t>Balance_Ionico_primaria</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/1_Base_de_datos_cartografica/Cartografia_3116.gdb</t>
-  </si>
-  <si>
-    <t>PRODUCTO_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene el balance de aniones y cationes principales para los 51 pozos, a los  cuales se les realizó análisis de laboratorio, con muestreo realizado en el marco del proyecto. </t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, aniones, cationes, balance ionico, hidrogeoquimica. </t>
-  </si>
-  <si>
-    <t>R0062</t>
-  </si>
-  <si>
-    <t>CalidadAguaPrimaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene determinantes de calidad de 51 datos, obtenidos en la campaña de campo en los 51 pozos de agua subterránea realizados en el marco del proyecto. Contiene datos de conductividad eléctrica, pH, carbonatos, coliformes totales, e-coli, mercurio, molibdeno, niquel, nitratos, nitritos, plomo y aluminio, entre otros. </t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Es una variable de calidad de agua.</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, calidad de agua</t>
-  </si>
-  <si>
-    <t>R0063</t>
-  </si>
-  <si>
-    <t>CE_secundaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene la información de conductividad eléctrica para 441 puntos de agua subterránea obtenidos a partir de información secundaria en el marco del proyecto. </t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Es una variable de calidad de agua</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, pH, conductividad eléctrica, coliformes</t>
-  </si>
-  <si>
-    <t>R0064</t>
-  </si>
-  <si>
-    <t>ANEXOS PRODUCTO 2 CAP 3-8</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_2/ANEXOS/ANEXOS PRODUCTO 2 CAP 3-8.rar</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>R0065</t>
-  </si>
-  <si>
-    <t>Estaciones_virtuales_SWAT</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/ANEXOS_PRODUCTO 4/ANEXOS TOMO 2/1_MODELO_HIDROLOGICO/1_Información_Climatica/Estaciones_virtuales_SWAT.xlsx</t>
-  </si>
-  <si>
-    <t>PRODUCTO_4</t>
-  </si>
-  <si>
-    <t>Contiene los valores  de precipitación diaria de cada una de las 371 subcuencas del modelo hidrológico construido en SWAT.</t>
-  </si>
-  <si>
-    <t>Hirología</t>
-  </si>
-  <si>
-    <t>Es un insumo para construir el modelo hidrológico de la región de la Mojana. Es una espacialización de la precipitación más detallada que la generada por tan solo las estaciones climatológicas de la región</t>
-  </si>
-  <si>
-    <t>Precipitación, lluvia, estación virtual</t>
-  </si>
-  <si>
-    <t>R0066</t>
-  </si>
-  <si>
-    <t>Mapa 3</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas/2_PDF/Mapa 3.pdf</t>
-  </si>
-  <si>
-    <t>Mapa que contiene la evaluación de la vulnerabilidad intrínseca a la contaminación de acuíferos por el método FDRASTIC, en una escala 1:210.000. En una escala numérica y de colores de 1 a 5.</t>
-  </si>
-  <si>
-    <t>Mapa</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>Variable que sirve para la toma de decisiones, Vulnerabilidad instrinseca a la contaminación</t>
-  </si>
-  <si>
-    <t>Vulnerabilidad a la contaminación, hidrogeología, aguas subterrénas, acuíferos</t>
-  </si>
-  <si>
-    <t>R0067</t>
-  </si>
-  <si>
-    <t>A1-Estaciones_usadas_SD_La_Mojana</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/A1-Estaciones_usadas_SD_La_Mojana.xlsx</t>
-  </si>
-  <si>
-    <t>Listado de variables seleccionadas de las estaciones hidroclimatológicas de la región</t>
-  </si>
-  <si>
-    <t>xslx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estaciones climatológicas, precipitación, temperatura, humedad relativa, </t>
-  </si>
-  <si>
-    <t>R0068</t>
-  </si>
-  <si>
-    <t>Cluster_primaria_y_secundaria</t>
-  </si>
-  <si>
-    <t>Archivo que contiene la información agrupada por cluster del análisis de la información hidrogeoquímica de los puntos de agua analizados en el estudio producto de información primaria e información secundaria. En total se tiene información para 82 puntos. Contiene información de los iones principales, conductividad hidráulica, coliformes, metales pesados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene variables de calidad del agua como contenido de metales pesados, variable de potencial de agua subterránea como conductividad hidráulica.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo hidrogeológico, base de datos, información secundaria, pozos, pH, conductividad eléctrica, coliformes, información primaria. </t>
-  </si>
-  <si>
-    <t>R0069</t>
-  </si>
-  <si>
-    <t>Verificacion_normativa_primaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo que contiene información de 202 puntos de agua subterránea con evaluación de parámetros de acuerdo con la normatividad para calidad de agua en los diferentes usos, consumo humano, agricola, uso pecuario, uso recreativo. </t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes</t>
-  </si>
-  <si>
-    <t>R0070</t>
-  </si>
-  <si>
-    <t>2_.SHP</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/2_.SHP</t>
+    <t>R0084</t>
+  </si>
+  <si>
+    <t>ProjectSPI_13070120</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_13070120.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Callemar, Caño aguas prietas, San Carlos, Córdoba</t>
+  </si>
+  <si>
+    <t>R0085</t>
+  </si>
+  <si>
+    <t>ProjectSPI_13090040</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_13090040.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Chalan, Ay. Pechelin, Chalán, Sucre</t>
+  </si>
+  <si>
+    <t>R0086</t>
+  </si>
+  <si>
+    <t>ProjectSPI_23100030</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_23100030.xlsx</t>
+  </si>
+  <si>
+    <t>R0087</t>
+  </si>
+  <si>
+    <t>ProjectSPI_23130010</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación El Tigre, Pescado, Vegachí, Antioquía</t>
+  </si>
+  <si>
+    <t>R0088</t>
+  </si>
+  <si>
+    <t>ProjectSPI_23180020</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_23180020.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Puerto Wilches, Magdalena, Puerto Wilches, Santander</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020090</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Tamalameque, Magdalena, Tamalameque, Cesar</t>
+  </si>
+  <si>
+    <t>R0089</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020240</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25020240.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación El Canal, Ay. Pereté, Chimichagua, Cesar</t>
+  </si>
+  <si>
+    <t>R0090</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020330</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25020330.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Caimital, Caribona, San Jacinto, Bolívar</t>
+  </si>
+  <si>
+    <t>R0091</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020500</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25020500.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Hacienda Villa Cecilia, Brazo Mojana, Sucre, Sucre</t>
+  </si>
+  <si>
+    <t>R0092</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020700</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25020700.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación La Apartada, San Jorge, La Apartada, Córdoba</t>
+  </si>
+  <si>
+    <t>R0093</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25020980</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25020980.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Caimito, Ay. San Juan, Caimito, Sucre</t>
+  </si>
+  <si>
+    <t>R0094</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25021030</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25021030.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación San Zenon, Brazo Mompox, San Zenon, Magdalena</t>
+  </si>
+  <si>
+    <t>R0095</t>
+  </si>
+  <si>
+    <t>ProjectSPI_25021040</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_25021040.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Menchiquejo, Ciénaga Chilloa, El Banco, Magdalena</t>
+  </si>
+  <si>
+    <t>R0096</t>
+  </si>
+  <si>
+    <t>ProjectSPI_26230130</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_26230130.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Cruces arriba, San Andres, San Andres, Antioquia</t>
+  </si>
+  <si>
+    <t>R0097</t>
+  </si>
+  <si>
+    <t>ProjectSPI_26230160</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_26230160.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Briceño, Quebrada El Aro, Briceño, Antioquia</t>
+  </si>
+  <si>
+    <t>R0098</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27020170</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27020170.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación El Carmen, Anorí, Anorí, Antioquía</t>
+  </si>
+  <si>
+    <t>R0099</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27020200</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27020200.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Cedeño, San Julian, Yarumal, Antioquía</t>
+  </si>
+  <si>
+    <t>R0100</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27020210</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27020210.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Angostura, Tenche, Angostura, Antioquía</t>
+  </si>
+  <si>
+    <t>R0101</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27020220</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27020220.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Los Llanos de Cuiba, Dolores, Yarumal, Antioquía</t>
+  </si>
+  <si>
+    <t>R0102</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27030090</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27030090.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación El Bosque, Quebrada Doña Teresa, Zaragoza, Antioquía</t>
+  </si>
+  <si>
+    <t>R0103</t>
+  </si>
+  <si>
+    <t>ProjectSPI_27040030</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_27040030.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación Esmeralda, Quebrada Cuturu, Caucasia, Antioquía</t>
+  </si>
+  <si>
+    <t>R0104</t>
+  </si>
+  <si>
+    <t>ProjectSPI_29060200</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/CAMBIO CLIMATICO/ANEXOS_CAMBIO_CLIMATICO/ANEXO_3/ProjectSPI_29060200.xlsx</t>
+  </si>
+  <si>
+    <t>Contiene datos de precipitación, cálculo SPI y figuras históricas de la estación La Maria, Fundación, Aracataca, Magdalena</t>
+  </si>
+  <si>
+    <t>PR0015</t>
+  </si>
+  <si>
+    <t>R0105</t>
+  </si>
+  <si>
+    <t>1_Coberturas_CLC_2000-2002</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/2_.SHP/1_Coberturas_CLC_2000-2002.shp</t>
   </si>
   <si>
     <t>PRODUCTO_3</t>
   </si>
   <si>
-    <t>PR0015</t>
-  </si>
-  <si>
-    <t>R0071</t>
-  </si>
-  <si>
-    <t>2. ANEXOS MODELO HIDRODINAMICO</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO</t>
-  </si>
-  <si>
-    <t>Carpeta cartografica varias subcarpetas</t>
-  </si>
-  <si>
-    <t>R0072</t>
-  </si>
-  <si>
-    <t>Cluster_primaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene la información primaria de parámetros fisicoquimicos, agrupados en 3 clusters, que permiten diferenciar los grupos de agua subterránea por su posible origen o composición. </t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. Ayuda para el modelo de toma de decisiones al hacer una selección por cluster de los puntos de agua subterránea con origen similar.</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información primaria, pozos, pH, conductividad eléctrica, coliformes, cluster, origen del agua</t>
-  </si>
-  <si>
-    <t>R0073</t>
-  </si>
-  <si>
-    <t>pH_secundaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo que contiene información de pH de 410 puntos de agua subterránea de la información secundaria recolectada en el marco del proyecto. </t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, pH</t>
-  </si>
-  <si>
-    <t>R0074</t>
-  </si>
-  <si>
-    <t>Inventario_puntos_hidrogeologicos</t>
-  </si>
-  <si>
-    <t>Contiene información de 6459 puntos de agua subterránea diferenciados como pozo aljibe o manantial, para toda la zona de estudio de la región de La Mojana. Es información cruda, no depurada.</t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. No contien variables para el modelo de toma de decisiones</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, información secundaria, pozos, aljibes, manantiales, puntos de agua subterránea</t>
+    <t>Capa cartográfica que contiene la cobertura de suelos para cartografía Corine Land Cover para el año 2000-2002, esta capa es un insumo para el análisis multitemporal de variación de coberturas de suelo para la región de La Mojana, como Anexo del producto 3. Esta capa es importante, por ejemplo, para el análisis de aumento de tejido urbano. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Los principales atributos de esta capa son un ID dado con codificación del modelo SWAT que relaciona el tipo de cobertura (ID_SWAT), una codificación en letras para el modelo SWAT que indica el tipo de cobertura (COD_SWAT), la nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT), el área del polígono (Shape_Area) y el perímetro del polígono (Shape_Le_1)</t>
+  </si>
+  <si>
+    <t>Variable: nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT)</t>
+  </si>
+  <si>
+    <t>Análisis multitemporal, cobertura suelo, modelo hidrológico, modelo SWAT, Corine Land Cover, La Mojana, 2000, 2003</t>
+  </si>
+  <si>
+    <t>R0106</t>
+  </si>
+  <si>
+    <t>2_Coberturas_CLC_2010-2012</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/2_.SHP/2_Coberturas_CLC_2010-2012.shp</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene la cobertura de suelos para cartografía Corine Land Cover para el año 2005-2009, esta capa es un insumo para el análisis multitemporal de variación de coberturas de suelo para la región de La Mojana, como Anexo del producto 3. Esta capa es importante, por ejemplo, para el análisis de aumento de tejido urbano. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Los principales atributos de esta capa son un ID dado con codificación del modelo SWAT que relaciona el tipo de cobertura (ID_SWAT), una codificación en letras para el modelo SWAT que indica el tipo de cobertura (COD_SWAT), la nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT), el área del polígono (Shape_Area) y el perímetro del polígono (Shape_Le_1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable: nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT). La capa se encuentra mal nombrada, corresponde a los años 2005 a 2009 de acuerdo con el informe asociado. </t>
+  </si>
+  <si>
+    <t>Análisis multitemporal, cobertura suelo, modelo hidrológico, modelo SWAT, Corine Land Cover, La Mojana, 2010, 2012</t>
+  </si>
+  <si>
+    <t>R0107</t>
+  </si>
+  <si>
+    <t>3_Coberturas_CLC_2010-2012</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/2_.SHP/3_Coberturas_CLC_2010-2012.shp</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene la cobertura de suelos para cartografía Corine Land Cover para el año 2010-2012, esta capa es un insumo para el análisis multitemporal de variación de coberturas de suelo para la región de La Mojana, como Anexo del producto 3. Esta capa es importante, por ejemplo, para el análisis de aumento de tejido urbano. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Los principales atributos de esta capa son un ID dado con codificación del modelo SWAT que relaciona el tipo de cobertura (ID_SWAT), una codificación en letras para el modelo SWAT que indica el tipo de cobertura (COD_SWAT), la nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT), el área del polígono (Shape_Area) y el perímetro del polígono (Shape_Le_1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable: nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT). </t>
+  </si>
+  <si>
+    <t>R0108</t>
+  </si>
+  <si>
+    <t>4_Coberturas_CLC_2017</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/1_ANEXOS MODELO HIDROLOGICO/2_.SHP/4_Coberturas_CLC_2017.shp</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene la cobertura de suelos para cartografía Corine Land Cover para el año 2017, esta capa es un insumo para el análisis multitemporal de variación de coberturas de suelo para la región de La Mojana, como Anexo del producto 3. Esta capa es importante, por ejemplo, para el análisis de aumento de tejido urbano. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Los principales atributos de esta capa son un ID dado con codificación del modelo SWAT que relaciona el tipo de cobertura (ID_SWAT), una codificación en letras para el modelo SWAT que indica el tipo de cobertura (COD_SWAT), la nomenclatura del modelo SWAT donde se explica el tipo de cobertura (NOM_SWAT), el área del polígono (Shape_Area) y el perímetro del polígono (Shape_Le_1)</t>
+  </si>
+  <si>
+    <t>Análisis multitemporal, cobertura suelo, modelo hidrológico, modelo SWAT, Corine Land Cover, La Mojana, 2017</t>
+  </si>
+  <si>
+    <t>R0109</t>
+  </si>
+  <si>
+    <t>1_SHAPE/CANOS_DEM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/1_SHAPE/CANOS_DEM.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la digitalización de ríos y caños. Esta capa es un insumo para el modelo hidrodinámico de la Mojana en el marco del proyecto. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. La capa contiene únicamente un atributo de identificación (FID). </t>
+  </si>
+  <si>
+    <t>Variable: No contiene para el modelo de toma de decisiones. Es un insumo para el modelo hidrológico e hidrodinámico</t>
+  </si>
+  <si>
+    <t>Caños, La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico</t>
+  </si>
+  <si>
+    <t>R0110</t>
+  </si>
+  <si>
+    <t>POLIGONOS_COTA_LAMINA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/1_SHAPE/POLIGONOS_COTA_LAMINA.shp</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene los polígonos con valores de cota de lámina de agua (m) como insumo para el modelo hidrodinámico. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS</t>
+  </si>
+  <si>
+    <t>Variable: No contiene para el modelo de toma de decisiones. Es un insumo para el modelo hidrodinámico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caños, La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico, cota lamina, </t>
+  </si>
+  <si>
+    <t>R0111</t>
+  </si>
+  <si>
+    <t>POLIGONOS_DEM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/1_SHAPE/POLIGONOS_DEM.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la digitalización de polígonos con inconsistencias en la elevación (m), corresponde a un  insumo para el modelo hidrodinámico de La Mojana, para la generación del modelo topobatimétrico. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caños, La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico, cota lamina, elevación. </t>
+  </si>
+  <si>
+    <t>R0112</t>
+  </si>
+  <si>
+    <t>RUTAS_COTA_LAMINA</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/1_SHAPE/RUTAS_COTA_LAMINA.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la distancia entre estaciones hidrométricas, corresponde a un insumo para el modelo hidrodinámico de La Mojana, para la generación del modelo topobatimétrico. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. </t>
+  </si>
+  <si>
+    <t>Estaciones hidromñetricas, La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico</t>
+  </si>
+  <si>
+    <t>R0113</t>
+  </si>
+  <si>
+    <t>CURVATURAS</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/2_RASTER\CURVATURAS.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene las curvaturas de ríos y caños como insumo para generar una superficie continua que represente los caños en el modelo de elevación digital generado. Corresponde a un insumo para el modelo hidrodinámico de La Mojana, para la generación del modelo topobatimétrico. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. La variación del atributo de la capa está entre 0 y 0.11. </t>
+  </si>
+  <si>
+    <t>Caños, La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico, curvatura</t>
+  </si>
+  <si>
+    <t>R0114</t>
+  </si>
+  <si>
+    <t>elevation_20210201</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_3/ANEXOS/ANEXOS_TOMO 3_AVANCE MODELO HIDROLOGICO_HIDRODINAMICO/2. ANEXOS MODELO HIDRODINAMICO/3_DEM  ACTUALIZADO/elevation_20210201.tif</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene el DEM actualizado para la región de la Mojana para el año 2021. Corresponde a un insumo para el modelo hidrodinámico de La Mojana. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. La variación del atributo de la capa está entre -10 y 886, unidades (msnm).</t>
+  </si>
+  <si>
+    <t>raster</t>
+  </si>
+  <si>
+    <t>Variable: Elevación del terreno (msnm)</t>
+  </si>
+  <si>
+    <t>DEM, 2021 La Mojana, modelo hidrológico, modelo hidrodinámico, modelo topobatimétrico</t>
   </si>
   <si>
     <t>PR0009</t>
   </si>
   <si>
-    <t>R0075</t>
-  </si>
-  <si>
-    <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS</t>
-  </si>
-  <si>
-    <t>Carpeta con muchas subcarpetas se debe verificar que no haya información repetida</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>R0076</t>
-  </si>
-  <si>
-    <t>m-1000-CALI.nam</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-CALI.nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario promedio usado para la calibración. </t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>Es un insumo para la corrida del modelo hidrogeológico numérico</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico numérico, escenario calibración, ModelMuse</t>
-  </si>
-  <si>
-    <t>R0077</t>
-  </si>
-  <si>
-    <t>Temperatura</t>
-  </si>
-  <si>
-    <t>Contiene la localización y valores de temperatura media mensual multianual utilizadas en el balance hídrico.</t>
-  </si>
-  <si>
-    <t>Temperatura, estaciones, mensual, balance hídrico</t>
-  </si>
-  <si>
-    <t>R0078</t>
-  </si>
-  <si>
-    <t>Mapa 2</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_6/2_Salidas_Cartograficas/2_PDF/Mapa 2.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa que contiene las zonas hidrogeológicas y los sistemas acuíferos en una escala 1:210.000 . Contiene la leyenda de las unidades geológicas de la zona de estudio. </t>
-  </si>
-  <si>
-    <t>No contiene información de variables para la toma de decisiones</t>
-  </si>
-  <si>
-    <t>Hidrogeología, geología, mapa unidades hidrogeológicas, acuíferos</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>R0079</t>
-  </si>
-  <si>
-    <t>Dominio de modelacion</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_9/ANEXOS/Anexo_2_Dominio de Modelación/Dominio de modelacion.png</t>
-  </si>
-  <si>
-    <t>PRODUCTO_9</t>
-  </si>
-  <si>
-    <t>Mapa que contiene el dominio de la modelación como guía para la construcción del modelo hidrogeológico numérico en ModelMuse</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico</t>
-  </si>
-  <si>
-    <t>Mapa, dominio de la modelación hidrogeológica numérica</t>
-  </si>
-  <si>
-    <t>R0080</t>
-  </si>
-  <si>
-    <t>m-1000-DRY10</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-DRY10.nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario seco usado para la calibración. </t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico numérico, escenario seco, modelmuse</t>
-  </si>
-  <si>
-    <t>R0081</t>
-  </si>
-  <si>
-    <t>m-1000-WET100</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_5/ANEXOS_PRODUCTO_5/CAPITULO_2/MHN/MHN/MODELOS/m-1000-WET100.nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo que contiene el modelo hidrogeológico numérico para cargue a la interfaz ModelMuse. Modelo en escenario humedo usado para la calibración. </t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico numérico, escenario humedo, modelmuse</t>
-  </si>
-  <si>
-    <t>R0082</t>
-  </si>
-  <si>
-    <t>well_q1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contiene el raster con los puntos de caudal asignados al modelo hidrogeológico numérico para el escenario de calibración. </t>
-  </si>
-  <si>
-    <t>Es un insumo para la construcción del modelo hidrogeológico numérico. tiene la variable de caudal de agua subterráena para el modelo de toma de decisones</t>
-  </si>
-  <si>
-    <t>Modelo hidrogeológico, base de datos, raster, información secundaria, pozos, caudales agua subterránea</t>
+    <t>Est_Caudal</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 3 - Shape de las estaciones utilizadas/2.3.1 Caudal/Est_Caudal.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene las estaciones de caudal utilizadas en el balance de masa del modelo hidrodinámico.  La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Contiene atributos como el código de la estación, el nombre de la estación, el tipo de estación (si es limnimétrica o limnigráfica), la tecnología de la medición (automática o convencional), el estado (activa o suspendida), fecha de instalación, fecha de suspensión, corriente y datos de ubicación como departamento, municipio, altitud, zona hidrológica. </t>
+  </si>
+  <si>
+    <t>Estaciones de caudal, modelo hidrodinámico, la Mojana, modelo hidrológico, balance de masa</t>
+  </si>
+  <si>
+    <t>Est_Nivel_IDEAM</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 3 - Shape de las estaciones utilizadas/2.3.2 Nivel/Est_Nivel_IDEAM.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capa cartográfica que contiene la ubicación de las estaciones de nivel del IDEAM usadas en el modelo hidrodinámico.  La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. Contiene atributos como el código de la estación, el nombre de la estación, el tipo de estación (si es limnimétrica o limnigráfica), la tecnología de la medición (automática o convencional), el estado (activa o suspendida), fecha de instalación, fecha de suspensión, corriente y datos de ubicación como departamento, municipio, altitud, zona hidrológica. </t>
+  </si>
+  <si>
+    <t>Estaciones de nivel, IDEAM, modelo hidrodinámico, la Mojana, modelo hidrológico</t>
+  </si>
+  <si>
+    <t>R0115</t>
+  </si>
+  <si>
+    <t>200430_Aporte_Cienaga</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_Aporte_Cienaga.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos de caudal de aporte a la ciénaga (m3/s) que fueron obtenidos a partir de la modelación hidrológica en los diferentes afluentes del complejo cenagoso. Corresponde a un insumo para el balance de masa dentro del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. </t>
+  </si>
+  <si>
+    <t>Serie de datos</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>Caudal, aporte a la ciénaga, modelo hidrodinámico, modelo hidrológico, serie de tiempo de caudales, balance de masa</t>
+  </si>
+  <si>
+    <t>R0116</t>
+  </si>
+  <si>
+    <t>200430_Balance_R1R2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_Balance_R1R2.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos del balance del caudal derivado en (m3/s) de los rompederos R1 (Mundo Nuevo) y R2 (Santa Anita). Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. </t>
+  </si>
+  <si>
+    <t>Caudal, modelo hidrodinámico, modelo hidrológico, serie de tiempo de caudales, balance de masa, rompedero, Nuevo Mundo, Santa Anita</t>
+  </si>
+  <si>
+    <t>R0117</t>
+  </si>
+  <si>
+    <t>200430_R1</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_R1.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos del balance del caudal derivado en (m3/s) de los rompederos R1 (Mundo Nuevo). Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. Rompedero 1 (R1) = La Coquera + La Esperanza - Las Flores </t>
+  </si>
+  <si>
+    <t>R0118</t>
+  </si>
+  <si>
+    <t>200430_R2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_R2.csv</t>
+  </si>
+  <si>
+    <t>Serie de tiempo de datos del balance del caudal derivado en (m3/s) del rompedero R2 (Santa Anita). Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. Rompedero 2 (R2) = Las Flores + La Raya - Las Varas</t>
+  </si>
+  <si>
+    <t>R0119</t>
+  </si>
+  <si>
+    <t>200430_SJ_Balance</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_SJ_Balance.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos del balance de caudal en (m3/s) entre la estación Barbosa (6) y la estación Magangué (7) el punto de interés es la entrega al Rio San Jorge (SJ). Balance_R1R2 = La Coquera + La Esperanza + La Raya - Las Varas. Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. </t>
+  </si>
+  <si>
+    <t>R0120</t>
+  </si>
+  <si>
+    <t>200430_SJ_IDEAM_Montelibano</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_SJ_IDEAM_Montelibano.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos del balance de caudal en (m3/s). Serie de datos del IDEAM sin atípicos, estación 25017010. Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. </t>
+  </si>
+  <si>
+    <t>Caudal, modelo hidrodinámico, modelo hidrológico, serie de tiempo de caudales, balance de masa, rompedero, Montelíbano</t>
+  </si>
+  <si>
+    <t>200430_Sumas_separadas_R1R2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 4 - Resultados balances de masa/200430_Sumas_separadas_R1R2.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serie de tiempo de datos del balance de caudal en (m3/s), sumas separadas R1 y R2. Este en un insumo para el balance de masa del modelo hidrodinámico. Se precisa que los cálculos realizados no incluyen las variaciones producidas por el tránsito de corrientes, e incluyen la incertidumbre asociada a la estimación de caudales mediante curvas de gasto limitando la precisión de las estimaciones. </t>
+  </si>
+  <si>
+    <t>R0123</t>
+  </si>
+  <si>
+    <t>DEM_10m</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0002/02_PRODUCTOS/PRODUCTO_4/MODELO HIDRODINAMICO/ANEXOS/Anexo 8 - DEM Actualizado/Anexo 8 - DEM Actualizado/DEM_10m.tif</t>
+  </si>
+  <si>
+    <t>Capa cartográfica que contiene el DEM actualizado para la región de la Mojana para el año 2021 de 10 x 10 m. Corresponde a un insumo para el modelo hidrodinámico de La Mojana. La capa se encuentra en coordenadas EPSG:3116 - MAGNA-SIRGAS. La variación del atributo de la capa está entre 0.94 y 819, unidades (msnm).</t>
   </si>
 </sst>
 </file>
@@ -1453,30 +1943,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -1580,13 +2052,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1596,33 +2065,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,11 +2415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1970,11 +2428,11 @@
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="116.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
     <col min="12" max="14" width="8.85546875" customWidth="1"/>
@@ -2040,13 +2498,13 @@
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1">
@@ -2090,13 +2548,13 @@
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="1">
@@ -2140,13 +2598,13 @@
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="1">
@@ -2190,13 +2648,13 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1">
@@ -2240,13 +2698,13 @@
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="1">
@@ -2290,13 +2748,13 @@
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="1">
@@ -2340,13 +2798,13 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="1">
@@ -2390,13 +2848,13 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F9" s="1">
@@ -2440,13 +2898,13 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="1">
@@ -2490,13 +2948,13 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="1">
@@ -2540,13 +2998,13 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="1">
@@ -2590,13 +3048,13 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F13" s="1">
@@ -2640,13 +3098,13 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="10" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="1">
@@ -2682,7 +3140,7 @@
       <c r="P14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
@@ -2691,13 +3149,13 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="1">
@@ -2741,25 +3199,25 @@
       <c r="B16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="1">
         <v>2022</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -2791,25 +3249,25 @@
       <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="9" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="1">
         <v>2022</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -2841,25 +3299,25 @@
       <c r="B18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F18" s="1">
         <v>2022</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2891,25 +3349,25 @@
       <c r="B19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="10" t="s">
         <v>121</v>
       </c>
       <c r="F19" s="1">
         <v>2022</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2941,25 +3399,25 @@
       <c r="B20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="10" t="s">
         <v>127</v>
       </c>
       <c r="F20" s="1">
         <v>2022</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2991,25 +3449,25 @@
       <c r="B21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F21" s="1">
         <v>2022</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3041,25 +3499,25 @@
       <c r="B22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F22" s="1">
         <v>2022</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3091,25 +3549,25 @@
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F23" s="1">
         <v>2022</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -3141,25 +3599,25 @@
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="10" t="s">
         <v>144</v>
       </c>
       <c r="F24" s="1">
         <v>2022</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3191,25 +3649,25 @@
       <c r="B25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="9" t="s">
         <v>146</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="10" t="s">
         <v>148</v>
       </c>
       <c r="F25" s="1">
         <v>2022</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3241,25 +3699,25 @@
       <c r="B26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="9" t="s">
         <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="10" t="s">
         <v>153</v>
       </c>
       <c r="F26" s="1">
         <v>2022</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -3291,25 +3749,25 @@
       <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="9" t="s">
         <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="10" t="s">
         <v>157</v>
       </c>
       <c r="F27" s="1">
         <v>2022</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -3341,25 +3799,25 @@
       <c r="B28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="10" t="s">
         <v>161</v>
       </c>
       <c r="F28" s="1">
         <v>2022</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3391,25 +3849,25 @@
       <c r="B29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="10" t="s">
         <v>166</v>
       </c>
       <c r="F29" s="1">
         <v>2022</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3441,25 +3899,25 @@
       <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="9" t="s">
         <v>168</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="10" t="s">
         <v>170</v>
       </c>
       <c r="F30" s="1">
         <v>2022</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3491,25 +3949,25 @@
       <c r="B31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="10" t="s">
         <v>174</v>
       </c>
       <c r="F31" s="1">
         <v>2022</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -3541,25 +3999,25 @@
       <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>178</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="10" t="s">
         <v>180</v>
       </c>
       <c r="F32" s="1">
         <v>2022</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3584,32 +4042,32 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>184</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="10" t="s">
         <v>186</v>
       </c>
       <c r="F33" s="1">
         <v>2022</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>77</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3633,22 +4091,21 @@
       <c r="P33" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17">
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="10" t="s">
         <v>193</v>
       </c>
       <c r="F34" s="1">
@@ -3685,20 +4142,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="10" t="s">
         <v>201</v>
       </c>
       <c r="F35" s="1">
@@ -3735,20 +4192,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="10" t="s">
         <v>206</v>
       </c>
       <c r="F36" s="1">
@@ -3785,20 +4242,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="10" t="s">
         <v>210</v>
       </c>
       <c r="F37" s="1">
@@ -3835,20 +4292,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="10" t="s">
         <v>214</v>
       </c>
       <c r="F38" s="1">
@@ -3885,20 +4342,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="10" t="s">
         <v>218</v>
       </c>
       <c r="F39" s="1">
@@ -3935,20 +4392,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="10" t="s">
         <v>222</v>
       </c>
       <c r="F40" s="1">
@@ -3985,20 +4442,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="10" t="s">
         <v>226</v>
       </c>
       <c r="F41" s="1">
@@ -4035,20 +4492,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E42" s="26" t="s">
+      <c r="E42" s="10" t="s">
         <v>230</v>
       </c>
       <c r="F42" s="1">
@@ -4085,20 +4542,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E43" s="26" t="s">
+      <c r="E43" s="10" t="s">
         <v>234</v>
       </c>
       <c r="F43" s="1">
@@ -4135,20 +4592,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="10" t="s">
         <v>238</v>
       </c>
       <c r="F44" s="1">
@@ -4185,20 +4642,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="26" t="s">
+      <c r="E45" s="10" t="s">
         <v>242</v>
       </c>
       <c r="F45" s="1">
@@ -4235,20 +4692,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="10" t="s">
         <v>245</v>
       </c>
       <c r="F46" s="1">
@@ -4285,20 +4742,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="26" t="s">
+      <c r="E47" s="10" t="s">
         <v>249</v>
       </c>
       <c r="F47" s="1">
@@ -4335,20 +4792,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="10" t="s">
         <v>253</v>
       </c>
       <c r="F48" s="1">
@@ -4389,16 +4846,16 @@
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E49" s="26" t="s">
+      <c r="E49" s="10" t="s">
         <v>257</v>
       </c>
       <c r="F49" s="1">
@@ -4439,16 +4896,16 @@
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="26" t="s">
+      <c r="E50" s="10" t="s">
         <v>260</v>
       </c>
       <c r="F50" s="1">
@@ -4486,52 +4943,52 @@
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="13">
+        <v>2021</v>
+      </c>
+      <c r="G51" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="I51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O51" s="1" t="s">
+      <c r="L51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4542,19 +4999,19 @@
       <c r="B52" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="1" t="s">
         <v>269</v>
       </c>
       <c r="F52" s="1">
         <v>2020</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="5" t="s">
         <v>270</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4586,362 +5043,404 @@
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="A53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="F53" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G53" s="20" t="s">
+      <c r="F53" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="H53" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I53" s="20" t="s">
+      <c r="I53" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K53" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O53" s="20" t="s">
+      <c r="L53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="20" t="s">
+      <c r="A54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F54" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G54" s="20" t="s">
+      <c r="F54" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="H54" s="20" t="s">
+      <c r="H54" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="I54" s="20" t="s">
+      <c r="I54" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J54" s="20" t="s">
+      <c r="J54" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O54" s="20" t="s">
+      <c r="L54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="1" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F55" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G55" s="20" t="s">
+      <c r="F55" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="H55" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I55" s="23" t="s">
+      <c r="I55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="20" t="s">
+      <c r="J55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="7" customFormat="1">
+      <c r="A56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" s="12">
+        <v>2021</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q56"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F57" s="12">
+        <v>2021</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K55" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="M55" s="20" t="s">
+      <c r="K58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M58" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="N55" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="10" customFormat="1">
-      <c r="A56" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="F56" s="11">
-        <v>2021</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="11" t="s">
+      <c r="N58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="P56" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q56"/>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="F57" s="11">
-        <v>2021</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="H57" s="11" t="s">
+      <c r="L59" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="I57" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K57" s="11" t="s">
+      <c r="M59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="P57" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="F60" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N60" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O60" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="P60" s="20" t="s">
-        <v>331</v>
+      <c r="L60" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4949,49 +5448,49 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="F61" s="1">
         <v>2021</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>290</v>
+        <v>24</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -4999,49 +5498,49 @@
         <v>16</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>335</v>
+        <v>318</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="F62" s="1">
         <v>2021</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>290</v>
+        <v>349</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -5049,251 +5548,275 @@
         <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>335</v>
+        <v>352</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="F63" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
+      <c r="L64" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="65" spans="1:16">
-      <c r="A65" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="F65" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H65" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="I65" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J65" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K65" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="L65" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M65" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N65" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="P65" s="20" t="s">
-        <v>361</v>
+      <c r="A65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="F66" s="16">
-        <v>2021</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="K66" s="16" t="s">
+      <c r="B66" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L66" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M66" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N66" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="P66" s="16" t="s">
-        <v>369</v>
+      <c r="L66" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:16">
-      <c r="A67" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="F67" s="20">
-        <v>2020</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="20" t="s">
+      <c r="A67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K67" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N67" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20" t="s">
+      <c r="D67" s="8" t="s">
         <v>375</v>
       </c>
+      <c r="E67" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L67" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="68" spans="1:16">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>335</v>
+        <v>318</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="F68" s="1">
         <v>2021</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>289</v>
@@ -5304,367 +5827,405 @@
       <c r="K68" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L68" s="1" t="s">
-        <v>316</v>
+      <c r="L68" s="12" t="s">
+        <v>315</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:16">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>335</v>
+        <v>383</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="F69" s="1">
         <v>2021</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O69" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
-      <c r="A70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>387</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="F71" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="P71" s="3"/>
+      <c r="J71" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="72" spans="1:16">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>335</v>
+        <v>401</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="F72" s="1">
         <v>2021</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>336</v>
+      <c r="G72" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>289</v>
+        <v>407</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>290</v>
+        <v>408</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:16">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>335</v>
+        <v>383</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="F73" s="1">
         <v>2021</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" spans="1:16">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>335</v>
+        <v>383</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="F74" s="1">
         <v>2021</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>289</v>
+        <v>26</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>290</v>
+        <v>388</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>105</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>316</v>
+        <v>26</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>41</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:16">
-      <c r="A75" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="F75" s="3">
-        <v>2021</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3" t="s">
+      <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="P75" s="3"/>
+      <c r="H75" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="76" spans="1:16">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>416</v>
+        <v>352</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="F76" s="1">
         <v>2021</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>26</v>
@@ -5676,93 +6237,95 @@
         <v>41</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:16">
-      <c r="A77" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="F77" s="20">
-        <v>2021</v>
-      </c>
-      <c r="G77" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H77" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J77" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="K77" s="20" t="s">
+      <c r="A77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F77" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L77" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="M77" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N77" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20" t="s">
-        <v>424</v>
+      <c r="L77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:16">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>427</v>
+        <v>352</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="F78" s="1">
         <v>2021</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>367</v>
+        <v>24</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>26</v>
@@ -5774,95 +6337,95 @@
         <v>41</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P78" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F79" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
-      <c r="A79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="P79" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>440</v>
-      </c>
     </row>
     <row r="80" spans="1:16">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="D80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E80" s="26" t="s">
-        <v>443</v>
-      </c>
       <c r="F80" s="1">
         <v>2021</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>26</v>
@@ -5874,45 +6437,45 @@
         <v>41</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:16">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C81" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="26" t="s">
+      <c r="E81" s="1" t="s">
         <v>448</v>
       </c>
       <c r="F81" s="1">
         <v>2021</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>449</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>418</v>
+        <v>24</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>26</v>
@@ -5924,66 +6487,1865 @@
         <v>41</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P81" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C82" s="14" t="s">
+      <c r="E82" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F82" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="I82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E82" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2021</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H82" s="1" t="s">
+      <c r="D83" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O82" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="F83" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>455</v>
       </c>
+      <c r="I83" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F84" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F85" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F86" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F88" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F89" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F90" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F94" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F96" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="15" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I100" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F101" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I101" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K102" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" s="7" customFormat="1">
+      <c r="A103" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F103" s="12">
+        <v>2021</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M103" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N103" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="P103" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P104" s="12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K105" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O105" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P105" s="12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I106" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L106" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O106" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P106" s="12" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I107" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K107" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O107" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P107" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O108" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="P108" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F109" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K109" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L109" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K110" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L110" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F111" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O111" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K112" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O112" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
+      <c r="A114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F114" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
+      <c r="A115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O115" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
+      <c r="A116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O116" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
+      <c r="A117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O117" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
+      <c r="A118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="P118" s="12" t="s">
+        <v>573</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P82">
-    <sortCondition ref="C2:C82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:P75">
+    <sortCondition ref="C2:C75"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/P0002/09_FICHAS/N3-FD-General.xlsx
+++ b/P0002/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0002/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2141" documentId="13_ncr:1_{43278A2B-3CED-4637-A44B-2B28759B9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{082BA907-A404-4753-9302-652720FCEA79}"/>
+  <xr:revisionPtr revIDLastSave="2147" documentId="13_ncr:1_{43278A2B-3CED-4637-A44B-2B28759B9121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E517AF4-B228-4DE4-B040-C4D2E6CEBBC9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$P$118</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1903,7 +1903,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2417,12 +2417,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P70" sqref="P70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -2441,7 +2441,7 @@
     <col min="17" max="17" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -4118,10 +4118,10 @@
         <v>195</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>196</v>
@@ -4142,7 +4142,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -4168,10 +4168,10 @@
         <v>202</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>203</v>
@@ -4192,7 +4192,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -4218,10 +4218,10 @@
         <v>207</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>203</v>
@@ -4242,7 +4242,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -4268,10 +4268,10 @@
         <v>211</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>203</v>
@@ -4292,7 +4292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
@@ -4318,10 +4318,10 @@
         <v>215</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>203</v>
@@ -4342,7 +4342,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -4368,10 +4368,10 @@
         <v>219</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>203</v>
@@ -4392,7 +4392,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -4418,10 +4418,10 @@
         <v>223</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>203</v>
@@ -4442,7 +4442,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
@@ -4468,10 +4468,10 @@
         <v>227</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>203</v>
@@ -4492,7 +4492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
@@ -4518,10 +4518,10 @@
         <v>231</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>203</v>
@@ -4542,7 +4542,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -4568,10 +4568,10 @@
         <v>235</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>203</v>
@@ -4592,7 +4592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -4618,10 +4618,10 @@
         <v>239</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>203</v>
@@ -4642,7 +4642,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
@@ -4668,10 +4668,10 @@
         <v>243</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>203</v>
@@ -4692,7 +4692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
@@ -4718,10 +4718,10 @@
         <v>246</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>203</v>
@@ -4742,7 +4742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -4768,10 +4768,10 @@
         <v>250</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>203</v>
@@ -4792,7 +4792,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -4818,10 +4818,10 @@
         <v>254</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>203</v>
@@ -4842,7 +4842,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -4868,10 +4868,10 @@
         <v>258</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>203</v>
@@ -4892,7 +4892,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -4918,10 +4918,10 @@
         <v>261</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>26</v>
+        <v>408</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>203</v>
@@ -4942,7 +4942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>16</v>
       </c>
@@ -4967,11 +4967,11 @@
       <c r="H51" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I51" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>26</v>
+      <c r="I51" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="K51" s="13" t="s">
         <v>203</v>
@@ -4992,7 +4992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="7" customFormat="1">
+    <row r="56" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>16</v>
       </c>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="Q56"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>16</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>16</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>16</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>16</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>16</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>16</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>16</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>16</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>16</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>16</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>16</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>16</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>16</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>16</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>16</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>16</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>16</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>16</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>16</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>16</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>16</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" customHeight="1">
+    <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>16</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>16</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>16</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>16</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="103" spans="1:16" s="7" customFormat="1">
+    <row r="103" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>16</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>16</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>16</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>16</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>16</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>16</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>16</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>16</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>16</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
